--- a/biology/Botanique/Joseph_Gottfried_Mikan/Joseph_Gottfried_Mikan.xlsx
+++ b/biology/Botanique/Joseph_Gottfried_Mikan/Joseph_Gottfried_Mikan.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Joseph Gottfried Mikan, né le 3 septembre 1743 à Böhmisch-Leipa (auj. Česká Lípa) et mort le 7 août 1814 à Prague, est un botaniste austro-tchèque. 
 </t>
@@ -511,10 +523,12 @@
           <t>Biographie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Il étudie à Dresde, Prague et Vienne et officie comme médecin thermal à Teplice. En 1773, il devient professeur associé et, deux ans plus tard, est nommé professeur titulaire de botanique et de chimie à l'Université de Prague. En 1798, il devient recteur de l'université.
-Il est l'auteur du Catalogus plantarum omnium (1776), qu'il dédie au jardin botanique de Prague. Le genre végétal Mikania de la famille des Asteraceae porte son nom[1]. 
+Il est l'auteur du Catalogus plantarum omnium (1776), qu'il dédie au jardin botanique de Prague. Le genre végétal Mikania de la famille des Asteraceae porte son nom. 
 Il est le père de Johann Christian Mikan.
 </t>
         </is>
@@ -544,7 +558,9 @@
           <t>Publications</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t>1776 : Catalogus plantarum omnium juxta systematis vegetabilium Caroli a Linné editionem novissimam in usum horti botanici Pragensis, Gerle, Prague (Lire en ligne).
 1783 : Dispensatorium pauperum etc., Schönfeld, Prague et Vienne (Lire en ligne).
